--- a/sheets/pedagang_pembeli_spreadsheet.xlsx
+++ b/sheets/pedagang_pembeli_spreadsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>ID_Pedagang</t>
   </si>
@@ -53,22 +53,28 @@
     <t>0895608837548</t>
   </si>
   <si>
-    <t>Non-Aktif</t>
-  </si>
-  <si>
-    <t>Aldry</t>
-  </si>
-  <si>
-    <t>Batagor Aldry</t>
-  </si>
-  <si>
-    <t>Batagor viral dengan toping bumbu kacang</t>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Cincau Aldry</t>
+  </si>
+  <si>
+    <t>Cincau hitam manis banget</t>
   </si>
   <si>
     <t>08993490340</t>
   </si>
   <si>
-    <t>Aktif</t>
+    <t>Basir</t>
+  </si>
+  <si>
+    <t>Mie Goreng Basir</t>
+  </si>
+  <si>
+    <t>Mie goreng enakkl</t>
+  </si>
+  <si>
+    <t>0807979668</t>
   </si>
   <si>
     <t>ID_Pembeli</t>
@@ -508,7 +514,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,22 +573,45 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -607,13 +636,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -621,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -632,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -643,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -654,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -665,10 +694,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -676,10 +705,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -687,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -698,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -709,10 +738,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -720,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -731,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -742,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
